--- a/docs/tabel_uitwisselformaten.xlsx
+++ b/docs/tabel_uitwisselformaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvandenbrink\Documents\github\geox\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8E4602-4452-44FA-9AB1-55204AC83637}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970C3A5E-4CD7-4A8C-B2B7-94464F281C1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4005" windowWidth="29040" windowHeight="15840" xr2:uid="{C17E88D8-ABAD-41A4-85DF-89361CC22560}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Bestandformaat</t>
   </si>
@@ -123,6 +123,42 @@
   </si>
   <si>
     <t>Gestructureerde data</t>
+  </si>
+  <si>
+    <t>TOEPASSING</t>
+  </si>
+  <si>
+    <t>Ruimtelijke analyses - het ontdekken van betekenisvolle patronen in geodata</t>
+  </si>
+  <si>
+    <t>Uitwisselen van geodata tussen systemen</t>
+  </si>
+  <si>
+    <t>Data integratie - het combineren van geodata met andere data</t>
+  </si>
+  <si>
+    <t>Kaarten of andere visualisaties van geodata die gepubliceerd worden op het web</t>
+  </si>
+  <si>
+    <t>Web pagina's waarop mensen informatie kunnen vinden over geo-objecten</t>
+  </si>
+  <si>
+    <t>(niet per se)</t>
+  </si>
+  <si>
+    <t>maakt niet uit</t>
+  </si>
+  <si>
+    <t>niet per se</t>
+  </si>
+  <si>
+    <t>bij allemaal mogelijk</t>
+  </si>
+  <si>
+    <t>heel belangrijk</t>
+  </si>
+  <si>
+    <t>kan toegevoegde waarde hebben</t>
   </si>
 </sst>
 </file>
@@ -218,25 +254,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -551,155 +594,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAA1864-4783-4872-B370-E7356DE37527}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="25" width="20.77734375" customWidth="1"/>
     <col min="26" max="26" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="62.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="8"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="5"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="9"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="6"/>
       <c r="Z3" t="s">
         <v>26</v>
       </c>
@@ -708,62 +751,220 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="8"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="5"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="V13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
